--- a/election_votar_data/LOHAGARA/BARAHATIA/152537/152537_com_2005_male_without_photo_112_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/BARAHATIA/152537/152537_com_2005_male_without_photo_112_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="24.5" customWidth="1" min="3" max="3"/>
     <col width="43.5" customWidth="1" min="4" max="4"/>
     <col width="39.5" customWidth="1" min="5" max="5"/>
-    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -63903,10 +63903,14 @@
       </c>
       <c r="F1511" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং তারিখ: ৩০/০৩/১৯৮৭</t>
-        </is>
-      </c>
-      <c r="G1511" s="3" t="inlineStr"/>
+          <t>দার্জিলিং</t>
+        </is>
+      </c>
+      <c r="G1511" s="3" t="inlineStr">
+        <is>
+          <t>৩০/০৩/১৯৮৭</t>
+        </is>
+      </c>
       <c r="H1511" s="5" t="inlineStr">
         <is>
           <t>রশির বাপের বাড়ি, বড়হাতীয়া, লোহাগাড়া, চট্টগ্রাম</t>

--- a/election_votar_data/LOHAGARA/BARAHATIA/152537/152537_com_2005_male_without_photo_112_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/BARAHATIA/152537/152537_com_2005_male_without_photo_112_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="24.5" customWidth="1" min="3" max="3"/>
     <col width="43.5" customWidth="1" min="4" max="4"/>
     <col width="39.5" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -63903,14 +63903,10 @@
       </c>
       <c r="F1511" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
-        </is>
-      </c>
-      <c r="G1511" s="3" t="inlineStr">
-        <is>
-          <t>৩০/০৩/১৯৮৭</t>
-        </is>
-      </c>
+          <t>দার্জিলিং তারিখ: ৩০/০৩/১৯৮৭</t>
+        </is>
+      </c>
+      <c r="G1511" s="3" t="inlineStr"/>
       <c r="H1511" s="5" t="inlineStr">
         <is>
           <t>রশির বাপের বাড়ি, বড়হাতীয়া, লোহাগাড়া, চট্টগ্রাম</t>
